--- a/pred_ohlcv/54_21/2019-11-12 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-12 PIVX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>304.1712999999941</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1039.770399999994</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2530.770399999994</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-5460.730400000006</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-6770.730400000006</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-6770.730400000006</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-6770.730400000006</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-6640.141700000006</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-6840.141700000006</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2348.141700000006</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2348.141700000006</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1597.928000000006</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>2471.624399999994</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>10661.98469999999</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>20604.31249999999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>65026.18269999998</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>63988.35429999998</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>65720.15839999999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>53071.47529999998</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>46763.10269999998</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>48515.69709999998</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>54499.55329999999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>58553.89399999999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>57968.12719999999</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>60653.50499999999</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>59867.06329999999</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>51067.17099999999</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>51196.60669999999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>50237.87479999999</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>50237.87479999999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>49697.31649999999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>50239.56389999999</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>50169.56389999999</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>50126.47139999999</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>50506.47139999999</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>50506.47139999999</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>50466.47139999999</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>62403.06359999999</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>62403.06359999999</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>63395.06359999999</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>64252.06359999999</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>66109.06359999999</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>64301.06359999999</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>63261.06359999999</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>66354.6584</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>67404.353</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>67404.353</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>66964.353</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>64174.353</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>63535.3531</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>63535.3531</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>63535.3531</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>70154.54840000003</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-12 PIVX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-12 PIVX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>304.1712999999941</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1039.770399999994</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2530.770399999994</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-5460.730400000006</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-6760.730400000006</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-6770.730400000006</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-6770.730400000006</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-6770.730400000006</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-6640.141700000006</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-6840.141700000006</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2348.141700000006</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2348.141700000006</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2348.141700000006</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1938.141700000006</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1597.928000000006</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2141.624399999994</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>2471.624399999994</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>20614.31249999999</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>20604.31249999999</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>65026.18269999998</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>63988.35429999998</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>65720.15839999999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>53071.47529999998</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>46763.10269999998</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>46763.10269999998</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>47317.09079999998</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>54499.55329999999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>58553.89399999999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>57968.12719999999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>60653.50499999999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>59867.06329999999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>51067.17099999999</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>51196.60669999999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>50237.87479999999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>50237.87479999999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>49697.31649999999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>50239.56389999999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>50169.56389999999</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>50126.47139999999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>50506.47139999999</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>50506.47139999999</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>50466.47139999999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>62403.06359999999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>64301.06359999999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>63261.06359999999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>70154.54840000003</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
